--- a/정원/project_3/3_1_인원_배분_기초자료.xlsx
+++ b/정원/project_3/3_1_인원_배분_기초자료.xlsx
@@ -581,16 +581,16 @@
         <v>0.7852558117822799</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3232603724273113</v>
+        <v>0.3322699798522498</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="Q2" t="n">
         <v>0.07564153418972935</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4802825760874825</v>
+        <v>0.4319223797846252</v>
       </c>
     </row>
     <row r="3">
@@ -649,16 +649,16 @@
         <v>0.8530541032583325</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3369813786344332</v>
+        <v>0.3415043653458697</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06617647058823529</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q3" t="n">
         <v>0.001052695816678363</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8673731068853728</v>
+        <v>0.9578313253012049</v>
       </c>
     </row>
     <row r="4">
@@ -717,16 +717,16 @@
         <v>0.8586126412099711</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8662201894805619</v>
+        <v>0.8626595030221625</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1691176470588235</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="Q4" t="n">
         <v>0.1339822414792665</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7842938017128755</v>
+        <v>0.9130504318157586</v>
       </c>
     </row>
     <row r="5">
@@ -785,16 +785,16 @@
         <v>0.6172404537391467</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3533159098333878</v>
+        <v>0.3455339153794493</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q5" t="n">
         <v>0.02538675128917096</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5223302849954033</v>
+        <v>0.4995735153001386</v>
       </c>
     </row>
     <row r="6">
@@ -853,16 +853,16 @@
         <v>0.8400732891420035</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4617771969944462</v>
+        <v>0.4529885829415715</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.1448448417904983</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6078289059853873</v>
+        <v>0.6431389273909799</v>
       </c>
     </row>
     <row r="7">
@@ -921,16 +921,16 @@
         <v>0.4085356175893941</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3384514864423391</v>
+        <v>0.3263935527199462</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="Q7" t="n">
         <v>0.07626704909529186</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3815744907340204</v>
+        <v>0.377332338202367</v>
       </c>
     </row>
     <row r="8">
@@ -989,16 +989,16 @@
         <v>0.6780342638409113</v>
       </c>
       <c r="O8" t="n">
-        <v>0.362953283240771</v>
+        <v>0.3507387508394896</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q8" t="n">
         <v>0.00851310530009459</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5731359171626265</v>
+        <v>0.6454312826527349</v>
       </c>
     </row>
     <row r="9">
@@ -1057,16 +1057,16 @@
         <v>0.6233906731397628</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7504083632799738</v>
+        <v>0.7424445936870383</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="Q9" t="n">
         <v>0.02714124431696823</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7248754052353994</v>
+        <v>0.670753811707005</v>
       </c>
     </row>
     <row r="10">
@@ -1125,16 +1125,16 @@
         <v>0.4624066380356643</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6174452793204835</v>
+        <v>0.6108126259234385</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5872647215367494</v>
+        <v>0.6118989231261328</v>
       </c>
     </row>
     <row r="11">
@@ -1193,16 +1193,16 @@
         <v>0.4683969750723555</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5052270499836655</v>
+        <v>0.4919408999328408</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="Q11" t="n">
         <v>0.001647697800018308</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5384913146562152</v>
+        <v>0.5664783025908946</v>
       </c>
     </row>
     <row r="12">
@@ -1261,16 +1261,16 @@
         <v>0.3439804873494539</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4795818360013068</v>
+        <v>0.5045332437877771</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4973629457589394</v>
+        <v>0.4743042968333511</v>
       </c>
     </row>
     <row r="13">
@@ -1329,16 +1329,16 @@
         <v>0.5480837456820091</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6099313949689644</v>
+        <v>0.5963734049697784</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="Q13" t="n">
         <v>0.02729380892808104</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6923114143320269</v>
+        <v>0.6543341507623414</v>
       </c>
     </row>
     <row r="14">
@@ -1397,16 +1397,16 @@
         <v>0.8162624871627299</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8809212675596211</v>
+        <v>0.6964405641370047</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8014705882352942</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="Q14" t="n">
         <v>0.5322369023281359</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9463395751681425</v>
+        <v>0.7844652948075488</v>
       </c>
     </row>
     <row r="15">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4191176470588235</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="Q15" t="n">
         <v>0.01649223446129436</v>
@@ -1533,16 +1533,16 @@
         <v>0.5648982354588741</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4612871610584776</v>
+        <v>0.4610476830087307</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="Q16" t="n">
         <v>0.02750739938363897</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4508636957468428</v>
+        <v>0.4824608167182002</v>
       </c>
     </row>
     <row r="17">
@@ -1601,16 +1601,16 @@
         <v>0.5172019419288582</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6143417183926821</v>
+        <v>0.5896574882471457</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.005812711683397919</v>
       </c>
       <c r="R17" t="n">
-        <v>0.563845744423477</v>
+        <v>0.6040089561786971</v>
       </c>
     </row>
     <row r="18">
@@ -1669,16 +1669,16 @@
         <v>0.3739228363364765</v>
       </c>
       <c r="O18" t="n">
-        <v>0.364750081672656</v>
+        <v>0.4947951645399597</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3308823529411765</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="Q18" t="n">
         <v>0.2203643242913374</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3917840034838148</v>
+        <v>0.432295553897004</v>
       </c>
     </row>
     <row r="19">
@@ -1737,16 +1737,16 @@
         <v>0.1699222761646905</v>
       </c>
       <c r="O19" t="n">
-        <v>0.243874550800392</v>
+        <v>0.2464741437206179</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3602941176470588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1467556974887502</v>
+        <v>0.2029534065465401</v>
       </c>
     </row>
     <row r="20">
@@ -1805,16 +1805,16 @@
         <v>0.1567990850527495</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2693564194707612</v>
+        <v>0.2735057085292142</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1428847921807713</v>
+        <v>0.4697195863098411</v>
       </c>
     </row>
     <row r="21">
@@ -1873,16 +1873,16 @@
         <v>0.1674831948464196</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1932375040836328</v>
+        <v>0.1925789120214909</v>
       </c>
       <c r="P21" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1351429815648135</v>
+        <v>0.01044887514660412</v>
       </c>
     </row>
     <row r="22">
@@ -1941,16 +1941,16 @@
         <v>0.0414363738213052</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3211368833714472</v>
+        <v>0.3287441235728677</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04411764705882353</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03662844147675037</v>
+        <v>0.08535025055976117</v>
       </c>
     </row>
     <row r="23">
@@ -2009,16 +2009,16 @@
         <v>0.04434926710857996</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1948709572035283</v>
+        <v>0.1991269308260578</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03716069095659747</v>
+        <v>0.0269218466787504</v>
       </c>
     </row>
     <row r="24">
@@ -2077,16 +2077,16 @@
         <v>0.6162484828680795</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5432865076772296</v>
+        <v>0.5233378106111484</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9852941176470589</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="Q24" t="n">
         <v>0.009642083422329356</v>
       </c>
       <c r="R24" t="n">
-        <v>0.501282237383268</v>
+        <v>0.531080072502399</v>
       </c>
     </row>
     <row r="25">
@@ -2145,16 +2145,16 @@
         <v>0.4321258519279246</v>
       </c>
       <c r="O25" t="n">
-        <v>0.380594576935642</v>
+        <v>0.3769308260577569</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="Q25" t="n">
         <v>0.01643120861684923</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4365413461073209</v>
+        <v>0.4726516686213882</v>
       </c>
     </row>
     <row r="26">
@@ -2213,16 +2213,16 @@
         <v>0.3025371113808235</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3789611238157465</v>
+        <v>0.382303559435863</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2</v>
       </c>
       <c r="Q26" t="n">
         <v>0.2161535410246239</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2799632263995742</v>
+        <v>0.2775349184348012</v>
       </c>
     </row>
     <row r="27">
@@ -2281,16 +2281,16 @@
         <v>0.4948230790775838</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5967004246978111</v>
+        <v>0.5953660174613835</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2573529411764706</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="Q27" t="n">
         <v>0.09541390778994904</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4057676489088886</v>
+        <v>0.3959377332338203</v>
       </c>
     </row>
     <row r="28">
@@ -2349,16 +2349,16 @@
         <v>0.2720614321725329</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4666775563541327</v>
+        <v>0.3495634654130289</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="Q28" t="n">
         <v>0.4228175632380313</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2400445154110418</v>
+        <v>0.2292355261754984</v>
       </c>
     </row>
     <row r="29">
@@ -2417,16 +2417,16 @@
         <v>0.4121860703949211</v>
       </c>
       <c r="O29" t="n">
-        <v>0.569095066971578</v>
+        <v>0.5681665547347213</v>
       </c>
       <c r="P29" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="Q29" t="n">
         <v>0.002303725627803375</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3797358107127304</v>
+        <v>0.3695489924298966</v>
       </c>
     </row>
     <row r="30">
@@ -2485,16 +2485,16 @@
         <v>0.2424306787414807</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2696831100947403</v>
+        <v>0.2708193418401612</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2279411764705882</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1710940146126675</v>
+        <v>0.1685147670327327</v>
       </c>
     </row>
     <row r="31">
@@ -2553,16 +2553,16 @@
         <v>0.1490255344972458</v>
       </c>
       <c r="O31" t="n">
-        <v>0.3851682456713492</v>
+        <v>0.3912021490933513</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1985294117647059</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="Q31" t="n">
         <v>0.05895096573398834</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1586103449944356</v>
+        <v>0.151615310800725</v>
       </c>
     </row>
     <row r="32">
@@ -2621,16 +2621,16 @@
         <v>0.3938941275324433</v>
       </c>
       <c r="O32" t="n">
-        <v>0.4000326690623979</v>
+        <v>0.4303223640026864</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="Q32" t="n">
         <v>0.03885820645043176</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3397203270914985</v>
+        <v>0.4050005331058748</v>
       </c>
     </row>
     <row r="33">
@@ -2689,16 +2689,16 @@
         <v>0.512292269629353</v>
       </c>
       <c r="O33" t="n">
-        <v>0.5717085919634106</v>
+        <v>0.5624580255204835</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2426470588235294</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="Q33" t="n">
         <v>0.03322857230036921</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4407509556297479</v>
+        <v>0.4526601983153855</v>
       </c>
     </row>
     <row r="34">
@@ -2757,16 +2757,16 @@
         <v>0.3489053309681636</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4879124469127736</v>
+        <v>0.4927803895231699</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="Q34" t="n">
         <v>0.4070118695267446</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3080272898824212</v>
+        <v>0.2824928030706899</v>
       </c>
     </row>
     <row r="35">
@@ -2825,16 +2825,16 @@
         <v>0.2444928111287462</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1951976478275073</v>
+        <v>0.1908999328408328</v>
       </c>
       <c r="P35" t="n">
-        <v>0.08088235294117647</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="Q35" t="n">
         <v>0.007262075488969579</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1685779261624812</v>
+        <v>0.1574261648363365</v>
       </c>
     </row>
     <row r="36">
@@ -2893,16 +2893,16 @@
         <v>0.09050858930071888</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1703691604050964</v>
+        <v>0.172431161853593</v>
       </c>
       <c r="P36" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07606328930178545</v>
+        <v>0.07154280840174859</v>
       </c>
     </row>
     <row r="37">
@@ -2961,16 +2961,16 @@
         <v>0.08315983568294277</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1143417183926821</v>
+        <v>0.1145063801208865</v>
       </c>
       <c r="P37" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="Q37" t="n">
         <v>0.004988862783388765</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06986984080901922</v>
+        <v>0.06109393325514447</v>
       </c>
     </row>
     <row r="38">
@@ -3029,16 +3029,16 @@
         <v>0.6461523200448137</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7095720352825874</v>
+        <v>0.7177635997313633</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3602941176470588</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="Q38" t="n">
         <v>0.03422024227260245</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6447476653602361</v>
+        <v>0.6906919714255251</v>
       </c>
     </row>
     <row r="39">
@@ -3097,16 +3097,16 @@
         <v>0.3608883390906545</v>
       </c>
       <c r="O39" t="n">
-        <v>0.4137536752695198</v>
+        <v>0.4071524513096038</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07352941176470588</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="Q39" t="n">
         <v>0.004958349861166204</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3108820825470557</v>
+        <v>0.3144791555602943</v>
       </c>
     </row>
     <row r="40">
@@ -3165,16 +3165,16 @@
         <v>0.1353048268135562</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1891538712838942</v>
+        <v>0.1872061786433848</v>
       </c>
       <c r="P40" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="Q40" t="n">
         <v>0.0005492326000061026</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1252721730294673</v>
+        <v>0.1210683441731528</v>
       </c>
     </row>
     <row r="41">
@@ -3233,16 +3233,16 @@
         <v>0.1227301372420876</v>
       </c>
       <c r="O41" t="n">
-        <v>0.181639986932375</v>
+        <v>0.1833445265278711</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="Q41" t="n">
         <v>0.003737832972263754</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1328688246963759</v>
+        <v>0.1241070476596652</v>
       </c>
     </row>
     <row r="42">
@@ -3301,16 +3301,16 @@
         <v>0.189660162449818</v>
       </c>
       <c r="O42" t="n">
-        <v>0.33453119895459</v>
+        <v>0.3399932840832774</v>
       </c>
       <c r="P42" t="n">
-        <v>0.1323529411764706</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="Q42" t="n">
         <v>0.004271809111158576</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2034644602506411</v>
+        <v>0.1880264420513914</v>
       </c>
     </row>
     <row r="43">
@@ -3369,16 +3369,16 @@
         <v>0.3363878255998506</v>
       </c>
       <c r="O43" t="n">
-        <v>0.435968637700098</v>
+        <v>0.4395567494963062</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="Q43" t="n">
         <v>0.3011472858755683</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2378187448589539</v>
+        <v>0.2236379144898177</v>
       </c>
     </row>
     <row r="44">
@@ -3437,16 +3437,16 @@
         <v>0.6883787694893101</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7201894805619079</v>
+        <v>0.6729348556077904</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8455882352941176</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q44" t="n">
         <v>0.7069996643578556</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4887501814486863</v>
+        <v>0.5090094892845719</v>
       </c>
     </row>
     <row r="45">
@@ -3505,16 +3505,16 @@
         <v>0.477842871814023</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5704018294674943</v>
+        <v>0.5597716588314305</v>
       </c>
       <c r="P45" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Q45" t="n">
         <v>0.08853324382876147</v>
       </c>
       <c r="R45" t="n">
-        <v>0.361107078918082</v>
+        <v>0.3691758183175178</v>
       </c>
     </row>
     <row r="46">
@@ -3573,16 +3573,16 @@
         <v>0.6071818691065261</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6773930088206469</v>
+        <v>0.6720953660174613</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="Q46" t="n">
         <v>0.183321636713148</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5705230560797406</v>
+        <v>0.5295340654654014</v>
       </c>
     </row>
     <row r="47">
@@ -3641,16 +3641,16 @@
         <v>0.2416336009709644</v>
       </c>
       <c r="O47" t="n">
-        <v>0.3301208755308723</v>
+        <v>0.3326057756883815</v>
       </c>
       <c r="P47" t="n">
-        <v>0.25</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="Q47" t="n">
         <v>0.002013852866689043</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2002709633715585</v>
+        <v>0.1770977716174432</v>
       </c>
     </row>
     <row r="48">
@@ -3709,16 +3709,16 @@
         <v>0.1146391560078424</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1855602744201242</v>
+        <v>0.1892209536601746</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q48" t="n">
         <v>0.4036859610044854</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1024338317123917</v>
+        <v>0.08993496108327113</v>
       </c>
     </row>
     <row r="49">
@@ -3777,16 +3777,16 @@
         <v>0.09638105685743628</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1058477621692257</v>
+        <v>0.1087978509066488</v>
       </c>
       <c r="P49" t="n">
-        <v>0.08088235294117647</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="Q49" t="n">
         <v>0.6011808500900131</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07528910824018968</v>
+        <v>0.06418594732913957</v>
       </c>
     </row>
     <row r="50">
@@ -3845,16 +3845,16 @@
         <v>0.6675462141723462</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6809866056844168</v>
+        <v>0.7086971121558092</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>0.411436243249016</v>
       </c>
       <c r="R50" t="n">
-        <v>0.731552716891663</v>
+        <v>0.627092440558695</v>
       </c>
     </row>
     <row r="51">
@@ -3913,16 +3913,16 @@
         <v>0.3556915787508169</v>
       </c>
       <c r="O51" t="n">
-        <v>0.361156484808886</v>
+        <v>0.3475486903962391</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="Q51" t="n">
         <v>0.0174076221279712</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3281076111675618</v>
+        <v>0.3835696769378398</v>
       </c>
     </row>
     <row r="52">
@@ -3981,16 +3981,16 @@
         <v>0.5205081224908972</v>
       </c>
       <c r="O52" t="n">
-        <v>0.2009147337471414</v>
+        <v>0.1956010745466756</v>
       </c>
       <c r="P52" t="n">
-        <v>0.2205882352941176</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="Q52" t="n">
         <v>0.04705092606718946</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2986887308269222</v>
+        <v>0.468919927497601</v>
       </c>
     </row>
     <row r="53">
@@ -4049,16 +4049,16 @@
         <v>0.1734116795817384</v>
       </c>
       <c r="O53" t="n">
-        <v>0.1973211368833714</v>
+        <v>0.2206178643384822</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2279411764705882</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="Q53" t="n">
         <v>0.1936350044243737</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1338849373397203</v>
+        <v>0.1456445250026655</v>
       </c>
     </row>
     <row r="54">
@@ -4117,16 +4117,16 @@
         <v>0.2349337130053216</v>
       </c>
       <c r="O54" t="n">
-        <v>0.3556027442012414</v>
+        <v>0.319341840161182</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3688488895340398</v>
+        <v>0.377172406439919</v>
       </c>
     </row>
     <row r="55">
@@ -4185,16 +4185,16 @@
         <v>0.225403790495752</v>
       </c>
       <c r="O55" t="n">
-        <v>0.2575955570075139</v>
+        <v>0.2202820685023506</v>
       </c>
       <c r="P55" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="Q55" t="n">
         <v>0.02503585268361151</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2187545362171578</v>
+        <v>0.1659558588335643</v>
       </c>
     </row>
     <row r="56">
@@ -4253,16 +4253,16 @@
         <v>0.2307067500700215</v>
       </c>
       <c r="O56" t="n">
-        <v>0.3342045083306109</v>
+        <v>0.4536601746138348</v>
       </c>
       <c r="P56" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q56" t="n">
         <v>0.3029017789033656</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1719649683069628</v>
+        <v>0.1414862991790169</v>
       </c>
     </row>
   </sheetData>
